--- a/simulated_data/10nodes_20len_trial8.xlsx
+++ b/simulated_data/10nodes_20len_trial8.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01160485911082915</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0116048591145619</v>
+        <v>13.62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.635</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.665000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.635</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.369999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.145</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.624786936827342</v>
+        <v>13.62</v>
       </c>
       <c r="C3" t="n">
-        <v>1.624786936815649</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.265</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.175000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.785</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.305</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.965</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.32</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7953192309207241</v>
+        <v>7.635</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7953192309302052</v>
+        <v>11.265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.605</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.864999999999998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.276848048016315</v>
+        <v>8.665000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>1.276848048009818</v>
+        <v>4.175000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.19</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.774717461369113</v>
+        <v>16.635</v>
       </c>
       <c r="C6" t="n">
-        <v>3.774717461361857</v>
+        <v>8.785</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.775</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.87</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.401638760888293</v>
+        <v>3.545</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.401638760891382</v>
+        <v>18.305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.605</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.775</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.375</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1803011213566695</v>
+        <v>1.8</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1803011213573737</v>
+        <v>11.235</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.864999999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.98</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2661130688163454</v>
+        <v>7.369999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2661130688187984</v>
+        <v>8.965</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.965</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007608764400083159</v>
+        <v>1.02</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007608764398557904</v>
+        <v>10.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.71</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6.145</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>11.32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.13</v>
+        <v>12.48</v>
       </c>
       <c r="D2" t="n">
-        <v>8.359999999999999</v>
+        <v>10.87</v>
       </c>
       <c r="E2" t="n">
-        <v>8.27</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>16.83</v>
+        <v>18.27</v>
       </c>
       <c r="G2" t="n">
-        <v>4.45</v>
+        <v>5.48</v>
       </c>
       <c r="H2" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42</v>
+        <v>4.01</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.13</v>
+        <v>12.48</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.31</v>
+        <v>14.48</v>
       </c>
       <c r="E3" t="n">
-        <v>4.33</v>
+        <v>4.41</v>
       </c>
       <c r="F3" t="n">
-        <v>9.779999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="G3" t="n">
-        <v>15.83</v>
+        <v>14.31</v>
       </c>
       <c r="H3" t="n">
-        <v>10.54</v>
+        <v>11.05</v>
       </c>
       <c r="I3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>11.07</v>
+        <v>11.64</v>
       </c>
       <c r="K3" t="n">
-        <v>12.33</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.359999999999999</v>
+        <v>10.87</v>
       </c>
       <c r="C4" t="n">
-        <v>13.31</v>
+        <v>14.48</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.23</v>
+        <v>11.36</v>
       </c>
       <c r="F4" t="n">
-        <v>21.58</v>
+        <v>22.62</v>
       </c>
       <c r="G4" t="n">
-        <v>7.42</v>
+        <v>6.12</v>
       </c>
       <c r="H4" t="n">
-        <v>9.300000000000001</v>
+        <v>11.05</v>
       </c>
       <c r="I4" t="n">
-        <v>11.95</v>
+        <v>11.52</v>
       </c>
       <c r="J4" t="n">
-        <v>9.77</v>
+        <v>11.79</v>
       </c>
       <c r="K4" t="n">
-        <v>15.32</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.27</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>4.33</v>
+        <v>4.41</v>
       </c>
       <c r="D5" t="n">
-        <v>9.23</v>
+        <v>11.36</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.61</v>
+        <v>11.6</v>
       </c>
       <c r="G5" t="n">
-        <v>11.62</v>
+        <v>10.09</v>
       </c>
       <c r="H5" t="n">
-        <v>7.01</v>
+        <v>6.77</v>
       </c>
       <c r="I5" t="n">
-        <v>6.45</v>
+        <v>4.47</v>
       </c>
       <c r="J5" t="n">
-        <v>7.63</v>
+        <v>7.44</v>
       </c>
       <c r="K5" t="n">
-        <v>10.63</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.83</v>
+        <v>18.27</v>
       </c>
       <c r="C6" t="n">
-        <v>9.779999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="D6" t="n">
-        <v>21.58</v>
+        <v>22.62</v>
       </c>
       <c r="E6" t="n">
-        <v>12.61</v>
+        <v>11.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.27</v>
+        <v>21.56</v>
       </c>
       <c r="H6" t="n">
-        <v>14.85</v>
+        <v>16.77</v>
       </c>
       <c r="I6" t="n">
-        <v>11.44</v>
+        <v>14.33</v>
       </c>
       <c r="J6" t="n">
-        <v>14.99</v>
+        <v>17.03</v>
       </c>
       <c r="K6" t="n">
-        <v>12.02</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.45</v>
+        <v>5.48</v>
       </c>
       <c r="C7" t="n">
-        <v>15.83</v>
+        <v>14.31</v>
       </c>
       <c r="D7" t="n">
-        <v>7.42</v>
+        <v>6.12</v>
       </c>
       <c r="E7" t="n">
-        <v>11.62</v>
+        <v>10.09</v>
       </c>
       <c r="F7" t="n">
-        <v>21.27</v>
+        <v>21.56</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.42</v>
+        <v>6.26</v>
       </c>
       <c r="I7" t="n">
-        <v>9.859999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="J7" t="n">
-        <v>6.35</v>
+        <v>6.75</v>
       </c>
       <c r="K7" t="n">
-        <v>11.34</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="C8" t="n">
-        <v>10.54</v>
+        <v>11.05</v>
       </c>
       <c r="D8" t="n">
-        <v>9.300000000000001</v>
+        <v>11.05</v>
       </c>
       <c r="E8" t="n">
-        <v>7.01</v>
+        <v>6.77</v>
       </c>
       <c r="F8" t="n">
-        <v>14.85</v>
+        <v>16.77</v>
       </c>
       <c r="G8" t="n">
-        <v>6.42</v>
+        <v>6.26</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.46</v>
+        <v>2.51</v>
       </c>
       <c r="J8" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="K8" t="n">
-        <v>6.02</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.42</v>
+        <v>4.01</v>
       </c>
       <c r="C9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>11.95</v>
+        <v>11.52</v>
       </c>
       <c r="E9" t="n">
-        <v>6.45</v>
+        <v>4.47</v>
       </c>
       <c r="F9" t="n">
-        <v>11.44</v>
+        <v>14.33</v>
       </c>
       <c r="G9" t="n">
-        <v>9.859999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.46</v>
+        <v>2.51</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="C10" t="n">
-        <v>11.07</v>
+        <v>11.64</v>
       </c>
       <c r="D10" t="n">
-        <v>9.77</v>
+        <v>11.79</v>
       </c>
       <c r="E10" t="n">
-        <v>7.63</v>
+        <v>7.44</v>
       </c>
       <c r="F10" t="n">
-        <v>14.99</v>
+        <v>17.03</v>
       </c>
       <c r="G10" t="n">
-        <v>6.35</v>
+        <v>6.75</v>
       </c>
       <c r="H10" t="n">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.63</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.4</v>
+        <v>6.16</v>
       </c>
       <c r="C11" t="n">
-        <v>12.33</v>
+        <v>7.68</v>
       </c>
       <c r="D11" t="n">
-        <v>15.32</v>
+        <v>8.1</v>
       </c>
       <c r="E11" t="n">
-        <v>10.63</v>
+        <v>3.58</v>
       </c>
       <c r="F11" t="n">
-        <v>12.02</v>
+        <v>15.18</v>
       </c>
       <c r="G11" t="n">
-        <v>11.34</v>
+        <v>6.63</v>
       </c>
       <c r="H11" t="n">
-        <v>6.02</v>
+        <v>5.23</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.13</v>
       </c>
       <c r="J11" t="n">
-        <v>5.63</v>
+        <v>6.09</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.250866017480404</v>
+        <v>3.12634169249679</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05547027561695897</v>
+        <v>-3.610513819334663</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.553380237178697</v>
+        <v>4.113203577679246</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.82776374014092</v>
+        <v>8.82853515196307</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.52266894117506</v>
+        <v>-7.19856832478502</v>
       </c>
       <c r="C4" t="n">
-        <v>-8.415940754010959</v>
+        <v>-0.2140500015713634</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.274097937543722</v>
+        <v>3.124397624415404</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.485082757188215</v>
+        <v>4.533407977392368</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-11.38811319578428</v>
+        <v>11.38198702912982</v>
       </c>
       <c r="C6" t="n">
-        <v>6.16844301472362</v>
+        <v>12.68427787061198</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.250667458169035</v>
+        <v>-2.3433500813952</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.995005117501257</v>
+        <v>-3.946656214858793</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.394455677693143</v>
+        <v>3.673144820981955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6402616094116499</v>
+        <v>-2.212335271035073</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.590056997781901</v>
+        <v>4.311093999307693</v>
       </c>
       <c r="C9" t="n">
-        <v>2.381234823869065</v>
+        <v>0.2197083783147713</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.756272597227613</v>
+        <v>4.306819702064153</v>
       </c>
       <c r="C10" t="n">
-        <v>1.190615645082572</v>
+        <v>-2.811020354732054</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6307176765433449</v>
+        <v>0.5875144249591424</v>
       </c>
       <c r="C11" t="n">
-        <v>6.3987075513714</v>
+        <v>2.005710579006577</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="D2" t="n">
-        <v>9.82</v>
+        <v>1.11</v>
       </c>
       <c r="E2" t="n">
-        <v>7.07</v>
+        <v>1.82</v>
       </c>
       <c r="F2" t="n">
-        <v>12.85</v>
+        <v>5.35</v>
       </c>
       <c r="G2" t="n">
-        <v>12.85</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
-        <v>8.949999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>0.39</v>
       </c>
       <c r="J2" t="n">
-        <v>13.14</v>
+        <v>0.03</v>
       </c>
       <c r="K2" t="n">
-        <v>6.35</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9.82</v>
+        <v>3.42</v>
       </c>
       <c r="E3" t="n">
-        <v>4.19</v>
+        <v>0.49</v>
       </c>
       <c r="F3" t="n">
-        <v>10.25</v>
+        <v>3.04</v>
       </c>
       <c r="G3" t="n">
-        <v>10.97</v>
+        <v>4.28</v>
       </c>
       <c r="H3" t="n">
-        <v>7.36</v>
+        <v>2.55</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
-        <v>10.25</v>
+        <v>2.29</v>
       </c>
       <c r="K3" t="n">
-        <v>5.49</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.82</v>
+        <v>1.11</v>
       </c>
       <c r="C4" t="n">
-        <v>9.82</v>
+        <v>3.42</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.12</v>
+        <v>2.93</v>
       </c>
       <c r="F4" t="n">
-        <v>17.76</v>
+        <v>6.46</v>
       </c>
       <c r="G4" t="n">
-        <v>7.07</v>
+        <v>0.86</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>0.87</v>
       </c>
       <c r="I4" t="n">
-        <v>7.22</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>14.15</v>
+        <v>1.14</v>
       </c>
       <c r="K4" t="n">
-        <v>15.3</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.07</v>
+        <v>1.82</v>
       </c>
       <c r="C5" t="n">
-        <v>4.19</v>
+        <v>0.49</v>
       </c>
       <c r="D5" t="n">
-        <v>11.12</v>
+        <v>2.93</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.79</v>
+        <v>3.53</v>
       </c>
       <c r="G5" t="n">
-        <v>9.380000000000001</v>
+        <v>3.79</v>
       </c>
       <c r="H5" t="n">
-        <v>6.93</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
-        <v>7.51</v>
+        <v>1.43</v>
       </c>
       <c r="J5" t="n">
-        <v>6.21</v>
+        <v>1.79</v>
       </c>
       <c r="K5" t="n">
-        <v>6.79</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.85</v>
+        <v>5.35</v>
       </c>
       <c r="C6" t="n">
-        <v>10.25</v>
+        <v>3.04</v>
       </c>
       <c r="D6" t="n">
-        <v>17.76</v>
+        <v>6.46</v>
       </c>
       <c r="E6" t="n">
-        <v>6.79</v>
+        <v>3.53</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.58</v>
+        <v>7.32</v>
       </c>
       <c r="H6" t="n">
-        <v>13.14</v>
+        <v>5.59</v>
       </c>
       <c r="I6" t="n">
-        <v>14.01</v>
+        <v>4.96</v>
       </c>
       <c r="J6" t="n">
-        <v>6.35</v>
+        <v>5.33</v>
       </c>
       <c r="K6" t="n">
-        <v>8.81</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.85</v>
+        <v>1.97</v>
       </c>
       <c r="C7" t="n">
-        <v>10.97</v>
+        <v>4.28</v>
       </c>
       <c r="D7" t="n">
-        <v>7.07</v>
+        <v>0.86</v>
       </c>
       <c r="E7" t="n">
-        <v>9.380000000000001</v>
+        <v>3.79</v>
       </c>
       <c r="F7" t="n">
-        <v>14.58</v>
+        <v>7.32</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>1.73</v>
       </c>
       <c r="I7" t="n">
-        <v>10.97</v>
+        <v>2.36</v>
       </c>
       <c r="J7" t="n">
-        <v>9.1</v>
+        <v>1.99</v>
       </c>
       <c r="K7" t="n">
-        <v>15.88</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.949999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="C8" t="n">
-        <v>7.36</v>
+        <v>2.55</v>
       </c>
       <c r="D8" t="n">
-        <v>5.2</v>
+        <v>0.87</v>
       </c>
       <c r="E8" t="n">
-        <v>6.93</v>
+        <v>2.06</v>
       </c>
       <c r="F8" t="n">
-        <v>13.14</v>
+        <v>5.59</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>7.22</v>
+        <v>0.63</v>
       </c>
       <c r="J8" t="n">
-        <v>9.1</v>
+        <v>0.27</v>
       </c>
       <c r="K8" t="n">
-        <v>12.56</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.6</v>
+        <v>0.39</v>
       </c>
       <c r="C9" t="n">
-        <v>3.9</v>
+        <v>1.92</v>
       </c>
       <c r="D9" t="n">
-        <v>7.22</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>7.51</v>
+        <v>1.43</v>
       </c>
       <c r="F9" t="n">
-        <v>14.01</v>
+        <v>4.96</v>
       </c>
       <c r="G9" t="n">
-        <v>10.97</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>7.22</v>
+        <v>0.63</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.14</v>
+        <v>0.37</v>
       </c>
       <c r="K9" t="n">
-        <v>8.66</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.14</v>
+        <v>0.03</v>
       </c>
       <c r="C10" t="n">
-        <v>10.25</v>
+        <v>2.29</v>
       </c>
       <c r="D10" t="n">
-        <v>14.15</v>
+        <v>1.14</v>
       </c>
       <c r="E10" t="n">
-        <v>6.21</v>
+        <v>1.79</v>
       </c>
       <c r="F10" t="n">
-        <v>6.35</v>
+        <v>5.33</v>
       </c>
       <c r="G10" t="n">
-        <v>9.1</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
-        <v>9.1</v>
+        <v>0.27</v>
       </c>
       <c r="I10" t="n">
-        <v>13.14</v>
+        <v>0.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.35</v>
+        <v>1.43</v>
       </c>
       <c r="C11" t="n">
-        <v>5.49</v>
+        <v>0.88</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3</v>
+        <v>2.54</v>
       </c>
       <c r="E11" t="n">
-        <v>6.79</v>
+        <v>0.39</v>
       </c>
       <c r="F11" t="n">
-        <v>8.81</v>
+        <v>3.92</v>
       </c>
       <c r="G11" t="n">
-        <v>15.88</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>12.56</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
-        <v>8.66</v>
+        <v>1.04</v>
       </c>
       <c r="J11" t="n">
-        <v>12.13</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3649352652035462</v>
+        <v>-0.01160485911082915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1742443870621506</v>
+        <v>-0.0116048591145619</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2238269183701877</v>
+        <v>1.624786936827342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02819178106075014</v>
+        <v>1.624786936815649</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.200744348276855</v>
+        <v>-0.7953192309207241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5549665777084033</v>
+        <v>-0.7953192309302052</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02660760218726019</v>
+        <v>1.276848048016315</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1789602428034899</v>
+        <v>1.276848048009818</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0403158929334534</v>
+        <v>3.774717461369113</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6537217446107045</v>
+        <v>3.774717461361857</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5207240680761503</v>
+        <v>-1.401638760888293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1803750811816474</v>
+        <v>-1.401638760891382</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2573610843967231</v>
+        <v>-0.1803011213566695</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2039654615411607</v>
+        <v>-0.1803011213573737</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2299453698479484</v>
+        <v>0.2661130688163454</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2998890368075168</v>
+        <v>0.2661130688187984</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3300831343527212</v>
+        <v>0.007608764400083159</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4171963625138837</v>
+        <v>0.007608764398557904</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4882369545671197</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.246337426482765</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.75</v>
+        <v>12.13</v>
       </c>
       <c r="D2" t="n">
-        <v>7.41</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>6.95</v>
+        <v>8.27</v>
       </c>
       <c r="F2" t="n">
-        <v>17.62</v>
+        <v>16.83</v>
       </c>
       <c r="G2" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97</v>
+        <v>1.98</v>
       </c>
       <c r="I2" t="n">
-        <v>3.28</v>
+        <v>5.42</v>
       </c>
       <c r="J2" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.75</v>
+        <v>12.13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.16</v>
+        <v>13.31</v>
       </c>
       <c r="E3" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="F3" t="n">
-        <v>6.87</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>14.62</v>
+        <v>15.83</v>
       </c>
       <c r="H3" t="n">
-        <v>9.779999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="I3" t="n">
-        <v>7.47</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.279999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="K3" t="n">
-        <v>5.35</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.41</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>18.16</v>
+        <v>13.31</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.36</v>
+        <v>9.23</v>
       </c>
       <c r="F4" t="n">
-        <v>25.03</v>
+        <v>21.58</v>
       </c>
       <c r="G4" t="n">
-        <v>3.54</v>
+        <v>7.42</v>
       </c>
       <c r="H4" t="n">
-        <v>8.380000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>10.69</v>
+        <v>11.95</v>
       </c>
       <c r="J4" t="n">
-        <v>8.880000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="K4" t="n">
-        <v>12.81</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.95</v>
+        <v>8.27</v>
       </c>
       <c r="C5" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="D5" t="n">
-        <v>14.36</v>
+        <v>9.23</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.67</v>
+        <v>12.61</v>
       </c>
       <c r="G5" t="n">
-        <v>10.82</v>
+        <v>11.62</v>
       </c>
       <c r="H5" t="n">
-        <v>5.98</v>
+        <v>7.01</v>
       </c>
       <c r="I5" t="n">
-        <v>3.67</v>
+        <v>6.45</v>
       </c>
       <c r="J5" t="n">
-        <v>5.48</v>
+        <v>7.63</v>
       </c>
       <c r="K5" t="n">
-        <v>1.55</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.62</v>
+        <v>16.83</v>
       </c>
       <c r="C6" t="n">
-        <v>6.87</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>25.03</v>
+        <v>21.58</v>
       </c>
       <c r="E6" t="n">
-        <v>10.67</v>
+        <v>12.61</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.49</v>
+        <v>21.27</v>
       </c>
       <c r="H6" t="n">
-        <v>16.65</v>
+        <v>14.85</v>
       </c>
       <c r="I6" t="n">
-        <v>14.34</v>
+        <v>11.44</v>
       </c>
       <c r="J6" t="n">
-        <v>16.15</v>
+        <v>14.99</v>
       </c>
       <c r="K6" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="C7" t="n">
-        <v>14.62</v>
+        <v>15.83</v>
       </c>
       <c r="D7" t="n">
-        <v>3.54</v>
+        <v>7.42</v>
       </c>
       <c r="E7" t="n">
-        <v>10.82</v>
+        <v>11.62</v>
       </c>
       <c r="F7" t="n">
-        <v>21.49</v>
+        <v>21.27</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.84</v>
+        <v>6.42</v>
       </c>
       <c r="I7" t="n">
-        <v>7.15</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>5.34</v>
+        <v>6.35</v>
       </c>
       <c r="K7" t="n">
-        <v>9.27</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.97</v>
+        <v>1.98</v>
       </c>
       <c r="C8" t="n">
-        <v>9.779999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="D8" t="n">
-        <v>8.380000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>5.98</v>
+        <v>7.01</v>
       </c>
       <c r="F8" t="n">
-        <v>16.65</v>
+        <v>14.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.84</v>
+        <v>6.42</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.31</v>
+        <v>3.46</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="K8" t="n">
-        <v>4.43</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.28</v>
+        <v>5.42</v>
       </c>
       <c r="C9" t="n">
-        <v>7.47</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>10.69</v>
+        <v>11.95</v>
       </c>
       <c r="E9" t="n">
-        <v>3.67</v>
+        <v>6.45</v>
       </c>
       <c r="F9" t="n">
-        <v>14.34</v>
+        <v>11.44</v>
       </c>
       <c r="G9" t="n">
-        <v>7.15</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2.31</v>
+        <v>3.46</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="C10" t="n">
-        <v>9.279999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="D10" t="n">
-        <v>8.880000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E10" t="n">
-        <v>5.48</v>
+        <v>7.63</v>
       </c>
       <c r="F10" t="n">
-        <v>16.15</v>
+        <v>14.99</v>
       </c>
       <c r="G10" t="n">
-        <v>5.34</v>
+        <v>6.35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.93</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="C11" t="n">
-        <v>5.35</v>
+        <v>12.33</v>
       </c>
       <c r="D11" t="n">
-        <v>12.81</v>
+        <v>15.32</v>
       </c>
       <c r="E11" t="n">
-        <v>1.55</v>
+        <v>10.63</v>
       </c>
       <c r="F11" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="G11" t="n">
-        <v>9.27</v>
+        <v>11.34</v>
       </c>
       <c r="H11" t="n">
-        <v>4.43</v>
+        <v>6.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.93</v>
+        <v>5.63</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.364914319802068</v>
+        <v>3.209700661966433</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.364915956141384</v>
+        <v>2.787608385448546</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.236314097748766</v>
+        <v>-7.593185669493427</v>
       </c>
       <c r="C3" t="n">
-        <v>5.236313912486685</v>
+        <v>-2.719068253293945</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.607310472938641</v>
+        <v>-1.982064266846844</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.607311469334468</v>
+        <v>9.346336949232514</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.549575798630981</v>
+        <v>-4.75046993064072</v>
       </c>
       <c r="C5" t="n">
-        <v>2.549574999747137</v>
+        <v>0.546401470685831</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.09463381853472</v>
+        <v>-4.711141960122863</v>
       </c>
       <c r="C6" t="n">
-        <v>10.09463381217122</v>
+        <v>-12.06415984714484</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.103451113324446</v>
+        <v>5.010964195799239</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.103450612065727</v>
+        <v>6.851554331139984</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.678497094189698</v>
+        <v>2.241648163153262</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.678494903289265</v>
+        <v>1.057528455198202</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.04620052154443095</v>
+        <v>1.087321356096836</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04619948454126676</v>
+        <v>-2.19913137751979</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.325232448330388</v>
+        <v>2.873319155340766</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.325236858658705</v>
+        <v>0.871000158494136</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.453197824231724</v>
+        <v>4.613908294747314</v>
       </c>
       <c r="C11" t="n">
-        <v>1.453199137897313</v>
+        <v>-4.478070272240633</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001707077026367188</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002260208129882812</v>
+        <v>10.82</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4880917072296143</v>
+        <v>6.55</v>
       </c>
       <c r="E2" t="n">
-        <v>1.29743480682373</v>
+        <v>7.98</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2088079452514648</v>
+        <v>14.53</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07172870635986328</v>
+        <v>4.84</v>
       </c>
       <c r="H2" t="n">
-        <v>1.166439533233643</v>
+        <v>4.56</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.07548159369022039</v>
       </c>
       <c r="C2" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.017543859649123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.624</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.28609125485068</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001707077026367188</v>
+        <v>0.2558829244927456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.1963337811045105</v>
       </c>
       <c r="C3" t="n">
-        <v>8.375</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6162280701754386</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.572</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1786312828082742</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.04651162790697674</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002260208129882812</v>
+        <v>-0.4922770733475108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.5366867892066475</v>
       </c>
       <c r="C4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.400513478818999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.599777777777778</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1961512301503983</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4880917072296143</v>
+        <v>0.3056008956489249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.2981687841225539</v>
       </c>
       <c r="C5" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9835164835164835</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.432888888888888</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7516479099989121</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5348837209302325</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.29743480682373</v>
+        <v>-0.259822698207071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.3340688045038608</v>
       </c>
       <c r="C6" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4296724470134873</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9495555555555554</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1227220743666455</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2088079452514648</v>
+        <v>-0.6752702498265052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.05147042196177384</v>
       </c>
       <c r="C7" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.913043478260869</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.614444444444444</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8141693790104915</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07172870635986328</v>
+        <v>0.5992246684547208</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.02308397279798761</v>
       </c>
       <c r="C8" t="n">
-        <v>9.639999999999999</v>
+        <v>-0.04818441372493111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.288924222177566</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2217341859128515</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0290179934381832</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07111689447590867</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.555681462702233</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02067343681881996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.779999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8614834673815907</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.046444444444445</v>
+        <v>5.98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2443993881490347</v>
+        <v>16.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.166439533233643</v>
+        <v>2.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.364914319802068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.364915956141384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.236314097748766</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.236313912486685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-7.607310472938641</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.607311469334468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.549575798630981</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.549574999747137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.09463381853472</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.09463381217122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5.103451113324446</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.103450612065727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.678497094189698</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.678494903289265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.04620052154443095</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.04619948454126676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.325232448330388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.325236858658705</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.453197824231724</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.453199137897313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3289335188754541</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.08892330723906906</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4813194583027993</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1216242318374259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.06264542054964896</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6727550255696944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2128998436753905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09893550769816611</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6019441462731996</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.112460605438237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3693055247624004</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4296043532477594</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2424099016730127</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3036041034383513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02150989587207608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2742170630360325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.225448911820737</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.307370516646628</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.04591027470139441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2363435225546927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-10.73639207897445</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.420574314004048</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.82763281907617</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.551452110594557</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-9.786602794999913</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.00038049144357</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.765409443397161</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.73963509529211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28.78577602798402</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2894477171992252</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-14.61742093853676</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.860508537071908</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-7.345257508172678</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.351494919769906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3055712234260304</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.115006235895344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-6.163913140363852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.015890034387669</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.576339394016363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.959563013145953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002758502960205078</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002779960632324219</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002868175506591797</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.700086832046509</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.506096124649048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2913236618041992</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2500452995300293</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4459059238433838</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01369428634643555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009519815444946289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.93</v>
+        <v>10.48</v>
       </c>
       <c r="D2" t="n">
-        <v>8.859999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E2" t="n">
-        <v>13.63</v>
+        <v>6.46</v>
       </c>
       <c r="F2" t="n">
-        <v>11.41</v>
+        <v>12.9</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>3.73</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>1.35</v>
       </c>
       <c r="K2" t="n">
-        <v>6.95</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.31</v>
+        <v>10.48</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.23</v>
+        <v>13.24</v>
       </c>
       <c r="E3" t="n">
-        <v>4.44</v>
+        <v>4.24</v>
       </c>
       <c r="F3" t="n">
-        <v>9.07</v>
+        <v>18.7</v>
       </c>
       <c r="G3" t="n">
-        <v>12.6</v>
+        <v>11.09</v>
       </c>
       <c r="H3" t="n">
-        <v>13.18</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>9.69</v>
+        <v>8.66</v>
       </c>
       <c r="J3" t="n">
-        <v>12.08</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>12.2</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.41</v>
+        <v>9.4</v>
       </c>
       <c r="C4" t="n">
-        <v>15.3</v>
+        <v>13.24</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.279999999999999</v>
+        <v>11.67</v>
       </c>
       <c r="F4" t="n">
-        <v>32.79</v>
+        <v>22.24</v>
       </c>
       <c r="G4" t="n">
-        <v>8.279999999999999</v>
+        <v>4.61</v>
       </c>
       <c r="H4" t="n">
-        <v>10.78</v>
+        <v>10.05</v>
       </c>
       <c r="I4" t="n">
-        <v>14.34</v>
+        <v>12.32</v>
       </c>
       <c r="J4" t="n">
-        <v>9.289999999999999</v>
+        <v>10.57</v>
       </c>
       <c r="K4" t="n">
-        <v>15.44</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.7</v>
+        <v>6.46</v>
       </c>
       <c r="C5" t="n">
-        <v>3.91</v>
+        <v>4.24</v>
       </c>
       <c r="D5" t="n">
-        <v>6.28</v>
+        <v>11.67</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.76</v>
+        <v>15.05</v>
       </c>
       <c r="G5" t="n">
-        <v>7.95</v>
+        <v>8.31</v>
       </c>
       <c r="H5" t="n">
-        <v>7.72</v>
+        <v>5.02</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>4.45</v>
       </c>
       <c r="J5" t="n">
-        <v>11.89</v>
+        <v>5.79</v>
       </c>
       <c r="K5" t="n">
-        <v>10.77</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.86</v>
+        <v>12.9</v>
       </c>
       <c r="C6" t="n">
-        <v>8.5</v>
+        <v>18.7</v>
       </c>
       <c r="D6" t="n">
-        <v>20.71</v>
+        <v>22.24</v>
       </c>
       <c r="E6" t="n">
-        <v>11.74</v>
+        <v>15.05</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.85</v>
+        <v>17.65</v>
       </c>
       <c r="H6" t="n">
-        <v>15.55</v>
+        <v>12.68</v>
       </c>
       <c r="I6" t="n">
-        <v>21.26</v>
+        <v>11.14</v>
       </c>
       <c r="J6" t="n">
-        <v>13.06</v>
+        <v>11.92</v>
       </c>
       <c r="K6" t="n">
-        <v>8.869999999999999</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.99</v>
+        <v>4.8</v>
       </c>
       <c r="C7" t="n">
-        <v>24.01</v>
+        <v>11.09</v>
       </c>
       <c r="D7" t="n">
-        <v>4.93</v>
+        <v>4.61</v>
       </c>
       <c r="E7" t="n">
-        <v>10.83</v>
+        <v>8.31</v>
       </c>
       <c r="F7" t="n">
-        <v>16.7</v>
+        <v>17.65</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.35</v>
+        <v>5.56</v>
       </c>
       <c r="I7" t="n">
-        <v>15.63</v>
+        <v>7.92</v>
       </c>
       <c r="J7" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>8.460000000000001</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5554,31 +7723,31 @@
         <v>1.54</v>
       </c>
       <c r="C8" t="n">
-        <v>9.289999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.949999999999999</v>
+        <v>10.05</v>
       </c>
       <c r="E8" t="n">
-        <v>8.52</v>
+        <v>5.02</v>
       </c>
       <c r="F8" t="n">
-        <v>10.63</v>
+        <v>12.68</v>
       </c>
       <c r="G8" t="n">
-        <v>4.47</v>
+        <v>5.56</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.41</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="K8" t="n">
-        <v>8.65</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.54</v>
+        <v>3.73</v>
       </c>
       <c r="C9" t="n">
-        <v>8.24</v>
+        <v>8.66</v>
       </c>
       <c r="D9" t="n">
-        <v>8.67</v>
+        <v>12.32</v>
       </c>
       <c r="E9" t="n">
-        <v>7.17</v>
+        <v>4.45</v>
       </c>
       <c r="F9" t="n">
-        <v>9.039999999999999</v>
+        <v>11.14</v>
       </c>
       <c r="G9" t="n">
-        <v>9.23</v>
+        <v>7.92</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33</v>
+        <v>2.41</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.97</v>
+        <v>2.43</v>
       </c>
       <c r="K9" t="n">
-        <v>3.69</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="C10" t="n">
-        <v>9.279999999999999</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>8.460000000000001</v>
+        <v>10.57</v>
       </c>
       <c r="E10" t="n">
-        <v>7.71</v>
+        <v>5.79</v>
       </c>
       <c r="F10" t="n">
-        <v>12.01</v>
+        <v>11.92</v>
       </c>
       <c r="G10" t="n">
-        <v>7.71</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="I10" t="n">
-        <v>4.81</v>
+        <v>2.43</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.15</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.34</v>
+        <v>4.41</v>
       </c>
       <c r="C11" t="n">
-        <v>10.44</v>
+        <v>13.61</v>
       </c>
       <c r="D11" t="n">
-        <v>19.16</v>
+        <v>13.39</v>
       </c>
       <c r="E11" t="n">
-        <v>11.61</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>12.87</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>6.29</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>7.31</v>
+        <v>4.91</v>
       </c>
       <c r="I11" t="n">
-        <v>4.24</v>
+        <v>5.02</v>
       </c>
       <c r="J11" t="n">
-        <v>7.27</v>
+        <v>3.98</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.54795307302675</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.392984787476582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.050382441634486</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.7850032394009061</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.781663364484908</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.55654373241192</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.066101792520162</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.946757520832603</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.44327405323926</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.834418096433508</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.201306787580477</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.07870434759174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.91008462177042</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.898846212841191</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.83013097310358</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.440597434292426</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.592207596850042</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.536085278908427</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.592354631645849</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.14561969639849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.28609125485068</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001707077026367188</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8.375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6162280701754386</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1786312828082742</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0002260208129882812</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.400513478818999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.599777777777778</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1961512301503983</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4880917072296143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9835164835164835</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.432888888888888</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7516479099989121</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.29743480682373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4296724470134873</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9495555555555554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1227220743666455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2088079452514648</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.913043478260869</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.614444444444444</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8141693790104915</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07172870635986328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9.639999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8614834673815907</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.046444444444445</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2443993881490347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.166439533233643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.62</v>
+        <v>10.93</v>
       </c>
       <c r="D2" t="n">
-        <v>7.635</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>8.665000000000001</v>
+        <v>13.63</v>
       </c>
       <c r="F2" t="n">
-        <v>16.635</v>
+        <v>11.41</v>
       </c>
       <c r="G2" t="n">
-        <v>3.545</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>7.369999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.145</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.62</v>
+        <v>16.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.265</v>
+        <v>7.23</v>
       </c>
       <c r="E3" t="n">
-        <v>4.175000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="F3" t="n">
-        <v>8.785</v>
+        <v>9.07</v>
       </c>
       <c r="G3" t="n">
-        <v>18.305</v>
+        <v>12.6</v>
       </c>
       <c r="H3" t="n">
-        <v>11.235</v>
+        <v>13.18</v>
       </c>
       <c r="I3" t="n">
-        <v>8.965</v>
+        <v>9.69</v>
       </c>
       <c r="J3" t="n">
-        <v>10.68</v>
+        <v>12.08</v>
       </c>
       <c r="K3" t="n">
-        <v>11.32</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.635</v>
+        <v>6.41</v>
       </c>
       <c r="C4" t="n">
-        <v>11.265</v>
+        <v>15.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.779999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>26.75</v>
+        <v>32.79</v>
       </c>
       <c r="G4" t="n">
-        <v>6.605</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>9.864999999999998</v>
+        <v>10.78</v>
       </c>
       <c r="I4" t="n">
-        <v>11.505</v>
+        <v>14.34</v>
       </c>
       <c r="J4" t="n">
-        <v>8.875</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>17.3</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.665000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="C5" t="n">
-        <v>4.175000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="D5" t="n">
-        <v>7.779999999999999</v>
+        <v>6.28</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.75</v>
+        <v>7.76</v>
       </c>
       <c r="G5" t="n">
-        <v>9.390000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="H5" t="n">
-        <v>8.119999999999999</v>
+        <v>7.72</v>
       </c>
       <c r="I5" t="n">
-        <v>6.435</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>9.800000000000001</v>
+        <v>11.89</v>
       </c>
       <c r="K5" t="n">
-        <v>11.19</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.635</v>
+        <v>21.86</v>
       </c>
       <c r="C6" t="n">
-        <v>8.785</v>
+        <v>8.5</v>
       </c>
       <c r="D6" t="n">
-        <v>26.75</v>
+        <v>20.71</v>
       </c>
       <c r="E6" t="n">
-        <v>9.75</v>
+        <v>11.74</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>26.775</v>
+        <v>36.85</v>
       </c>
       <c r="H6" t="n">
-        <v>13.09</v>
+        <v>15.55</v>
       </c>
       <c r="I6" t="n">
-        <v>15.15</v>
+        <v>21.26</v>
       </c>
       <c r="J6" t="n">
-        <v>12.535</v>
+        <v>13.06</v>
       </c>
       <c r="K6" t="n">
-        <v>10.87</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.545</v>
+        <v>2.99</v>
       </c>
       <c r="C7" t="n">
-        <v>18.305</v>
+        <v>24.01</v>
       </c>
       <c r="D7" t="n">
-        <v>6.605</v>
+        <v>4.93</v>
       </c>
       <c r="E7" t="n">
-        <v>9.390000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="F7" t="n">
-        <v>26.775</v>
+        <v>16.7</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.91</v>
+        <v>5.35</v>
       </c>
       <c r="I7" t="n">
-        <v>12.43</v>
+        <v>15.63</v>
       </c>
       <c r="J7" t="n">
-        <v>7.555</v>
+        <v>7.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.375</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="C8" t="n">
-        <v>11.235</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.864999999999998</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.119999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="F8" t="n">
-        <v>13.09</v>
+        <v>10.63</v>
       </c>
       <c r="G8" t="n">
-        <v>4.91</v>
+        <v>4.47</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.985</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="K8" t="n">
-        <v>7.98</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.369999999999999</v>
+        <v>5.54</v>
       </c>
       <c r="C9" t="n">
-        <v>8.965</v>
+        <v>8.24</v>
       </c>
       <c r="D9" t="n">
-        <v>11.505</v>
+        <v>8.67</v>
       </c>
       <c r="E9" t="n">
-        <v>6.435</v>
+        <v>7.17</v>
       </c>
       <c r="F9" t="n">
-        <v>15.15</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>12.43</v>
+        <v>9.23</v>
       </c>
       <c r="H9" t="n">
-        <v>1.985</v>
+        <v>1.33</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.39</v>
+        <v>3.97</v>
       </c>
       <c r="K9" t="n">
-        <v>3.965</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="C10" t="n">
-        <v>10.68</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>8.875</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.71</v>
       </c>
       <c r="F10" t="n">
-        <v>12.535</v>
+        <v>12.01</v>
       </c>
       <c r="G10" t="n">
-        <v>7.555</v>
+        <v>7.71</v>
       </c>
       <c r="H10" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.39</v>
+        <v>4.81</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.71</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.145</v>
+        <v>5.34</v>
       </c>
       <c r="C11" t="n">
-        <v>11.32</v>
+        <v>10.44</v>
       </c>
       <c r="D11" t="n">
-        <v>17.3</v>
+        <v>19.16</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19</v>
+        <v>11.61</v>
       </c>
       <c r="F11" t="n">
-        <v>10.87</v>
+        <v>12.87</v>
       </c>
       <c r="G11" t="n">
-        <v>7.375</v>
+        <v>6.29</v>
       </c>
       <c r="H11" t="n">
-        <v>7.98</v>
+        <v>7.31</v>
       </c>
       <c r="I11" t="n">
-        <v>3.965</v>
+        <v>4.24</v>
       </c>
       <c r="J11" t="n">
-        <v>6.71</v>
+        <v>7.27</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13.39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.369999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="E6" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.949999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8.859999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.54795307302675</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.392984787476582</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.050382441634486</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.7850032394009061</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.781663364484908</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10.55654373241192</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.066101792520162</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.946757520832603</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16.44327405323926</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.834418096433508</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.201306787580477</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.07870434759174</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.91008462177042</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.898846212841191</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.83013097310358</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.440597434292426</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.592207596850042</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.536085278908427</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7.592354631645849</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.14561969639849</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.31</v>
+        <v>13.35</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>7.54</v>
       </c>
       <c r="E2" t="n">
-        <v>1.82</v>
+        <v>7.1</v>
       </c>
       <c r="F2" t="n">
-        <v>5.35</v>
+        <v>15.79</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>0.39</v>
+        <v>7.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="K2" t="n">
-        <v>1.43</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.31</v>
+        <v>13.35</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.42</v>
+        <v>10.51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.49</v>
+        <v>4.17</v>
       </c>
       <c r="F3" t="n">
-        <v>3.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28</v>
+        <v>17.39</v>
       </c>
       <c r="H3" t="n">
-        <v>2.55</v>
+        <v>11.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="J3" t="n">
-        <v>2.29</v>
+        <v>10.59</v>
       </c>
       <c r="K3" t="n">
-        <v>0.88</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.11</v>
+        <v>7.54</v>
       </c>
       <c r="C4" t="n">
-        <v>3.42</v>
+        <v>10.51</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.93</v>
+        <v>7.63</v>
       </c>
       <c r="F4" t="n">
-        <v>6.46</v>
+        <v>26.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.86</v>
+        <v>6.39</v>
       </c>
       <c r="H4" t="n">
-        <v>0.87</v>
+        <v>9.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>11.15</v>
       </c>
       <c r="J4" t="n">
-        <v>1.14</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>2.54</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.82</v>
+        <v>7.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.49</v>
+        <v>4.17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.93</v>
+        <v>7.63</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.53</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>3.79</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>6.39</v>
       </c>
       <c r="J5" t="n">
-        <v>1.79</v>
+        <v>9.58</v>
       </c>
       <c r="K5" t="n">
-        <v>0.39</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.35</v>
+        <v>15.79</v>
       </c>
       <c r="C6" t="n">
-        <v>3.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>6.46</v>
+        <v>26.06</v>
       </c>
       <c r="E6" t="n">
-        <v>3.53</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.32</v>
+        <v>24.81</v>
       </c>
       <c r="H6" t="n">
-        <v>5.59</v>
+        <v>12.86</v>
       </c>
       <c r="I6" t="n">
-        <v>4.96</v>
+        <v>13.86</v>
       </c>
       <c r="J6" t="n">
-        <v>5.33</v>
+        <v>12.52</v>
       </c>
       <c r="K6" t="n">
-        <v>3.92</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="C7" t="n">
-        <v>4.28</v>
+        <v>17.39</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>6.39</v>
       </c>
       <c r="E7" t="n">
-        <v>3.79</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>7.32</v>
+        <v>24.81</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73</v>
+        <v>4.89</v>
       </c>
       <c r="I7" t="n">
-        <v>2.36</v>
+        <v>12.01</v>
       </c>
       <c r="J7" t="n">
-        <v>1.99</v>
+        <v>7.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="C8" t="n">
-        <v>2.55</v>
+        <v>11.06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.87</v>
+        <v>9.82</v>
       </c>
       <c r="E8" t="n">
-        <v>2.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>5.59</v>
+        <v>12.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>4.89</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.63</v>
+        <v>1.87</v>
       </c>
       <c r="J8" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>1.67</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.39</v>
+        <v>7.14</v>
       </c>
       <c r="C9" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>11.15</v>
       </c>
       <c r="E9" t="n">
-        <v>1.43</v>
+        <v>6.39</v>
       </c>
       <c r="F9" t="n">
-        <v>4.96</v>
+        <v>13.86</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>12.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>1.87</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.37</v>
+        <v>4.37</v>
       </c>
       <c r="K9" t="n">
-        <v>1.04</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="C10" t="n">
-        <v>2.29</v>
+        <v>10.59</v>
       </c>
       <c r="D10" t="n">
-        <v>1.14</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.79</v>
+        <v>9.58</v>
       </c>
       <c r="F10" t="n">
-        <v>5.33</v>
+        <v>12.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>7.55</v>
       </c>
       <c r="H10" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0.37</v>
+        <v>4.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.4</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.43</v>
+        <v>6.09</v>
       </c>
       <c r="C11" t="n">
-        <v>0.88</v>
+        <v>11.28</v>
       </c>
       <c r="D11" t="n">
-        <v>2.54</v>
+        <v>17.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>11.18</v>
       </c>
       <c r="F11" t="n">
-        <v>3.92</v>
+        <v>10.68</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>7.96</v>
       </c>
       <c r="I11" t="n">
-        <v>1.04</v>
+        <v>3.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4</v>
+        <v>6.69</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
